--- a/Project-KTXForecasting/Result/20250110_KCI/Forecasting_경전선_FUTR8+LAG0.xlsx
+++ b/Project-KTXForecasting/Result/20250110_KCI/Forecasting_경전선_FUTR8+LAG0.xlsx
@@ -38,10 +38,13 @@
     <t>MedAPE</t>
   </si>
   <si>
+    <t>DilatedRNN</t>
+  </si>
+  <si>
     <t>LSTM</t>
   </si>
   <si>
-    <t>DilatedRNN</t>
+    <t>GRU</t>
   </si>
   <si>
     <t>RNN</t>
@@ -50,13 +53,7 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>GRU</t>
-  </si>
-  <si>
     <t>TCN</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
   </si>
   <si>
     <t>RandomForest</t>
@@ -65,13 +62,16 @@
     <t>CatBoost</t>
   </si>
   <si>
-    <t>NHITS</t>
+    <t>LightGBM</t>
   </si>
   <si>
     <t>TiDE</t>
   </si>
   <si>
     <t>NBEATSx</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>MLP</t>
@@ -481,25 +481,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>158003888.1982422</v>
+        <v>354613648.7220052</v>
       </c>
       <c r="C2">
-        <v>12569.95975324671</v>
+        <v>18831.18819198633</v>
       </c>
       <c r="D2">
-        <v>0.000339782750457802</v>
+        <v>0.0007111643185288454</v>
       </c>
       <c r="E2">
-        <v>8492.276041666666</v>
+        <v>14176.30208333333</v>
       </c>
       <c r="F2">
-        <v>0.01243740133484662</v>
+        <v>0.02021692180543177</v>
       </c>
       <c r="G2">
-        <v>6572.71875</v>
+        <v>8915.5625</v>
       </c>
       <c r="H2">
-        <v>0.009505090308374462</v>
+        <v>0.01333999777096426</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>233023217.3121745</v>
+        <v>400347416.9563802</v>
       </c>
       <c r="C3">
-        <v>15265.0980118758</v>
+        <v>20008.68353881335</v>
       </c>
       <c r="D3">
-        <v>0.0005037647059922773</v>
+        <v>0.0008598932939736247</v>
       </c>
       <c r="E3">
-        <v>12668.921875</v>
+        <v>17121.1875</v>
       </c>
       <c r="F3">
-        <v>0.01854609967393755</v>
+        <v>0.02486944027513617</v>
       </c>
       <c r="G3">
-        <v>8873.375</v>
+        <v>14310.53125</v>
       </c>
       <c r="H3">
-        <v>0.0127317335753711</v>
+        <v>0.02072210042467291</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>318697301.7369792</v>
+        <v>402626655.1341146</v>
       </c>
       <c r="C4">
-        <v>17852.09516378902</v>
+        <v>20065.5589290235</v>
       </c>
       <c r="D4">
-        <v>0.000675175176312691</v>
+        <v>0.0008157941963899089</v>
       </c>
       <c r="E4">
-        <v>14942.41666666667</v>
+        <v>15853.61458333333</v>
       </c>
       <c r="F4">
-        <v>0.02183410577280282</v>
+        <v>0.02287857138498641</v>
       </c>
       <c r="G4">
-        <v>13821.15625</v>
+        <v>16150.4375</v>
       </c>
       <c r="H4">
-        <v>0.02034259654876386</v>
+        <v>0.02445996246916154</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,25 +559,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>489451859.1311849</v>
+        <v>671573644.515625</v>
       </c>
       <c r="C5">
-        <v>22123.55891648504</v>
+        <v>25914.73797891125</v>
       </c>
       <c r="D5">
-        <v>0.0009881309335549547</v>
+        <v>0.001301350679747975</v>
       </c>
       <c r="E5">
-        <v>17267.81770833333</v>
+        <v>19220.8125</v>
       </c>
       <c r="F5">
-        <v>0.02484171851953073</v>
+        <v>0.02742657302765216</v>
       </c>
       <c r="G5">
-        <v>13543.875</v>
+        <v>13919.15625</v>
       </c>
       <c r="H5">
-        <v>0.01892969303161034</v>
+        <v>0.02023697714818699</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,25 +585,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>592066900.6536459</v>
+        <v>1107273113.743164</v>
       </c>
       <c r="C6">
-        <v>24332.42488231796</v>
+        <v>33275.71357226113</v>
       </c>
       <c r="D6">
-        <v>0.001260643899462144</v>
+        <v>0.002149465676789791</v>
       </c>
       <c r="E6">
-        <v>19996.53125</v>
+        <v>23297.61979166667</v>
       </c>
       <c r="F6">
-        <v>0.0293469367323999</v>
+        <v>0.03346198358256099</v>
       </c>
       <c r="G6">
-        <v>20528.25</v>
+        <v>18265.5</v>
       </c>
       <c r="H6">
-        <v>0.03033412772548116</v>
+        <v>0.02685804560225154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>638838425.3570963</v>
+        <v>624018776.5009766</v>
       </c>
       <c r="C7">
-        <v>25275.25322043473</v>
+        <v>24980.36782157093</v>
       </c>
       <c r="D7">
-        <v>0.001375312496429682</v>
+        <v>0.001336655928075578</v>
       </c>
       <c r="E7">
-        <v>24293.109375</v>
+        <v>22191.25520833333</v>
       </c>
       <c r="F7">
-        <v>0.03563398961440752</v>
+        <v>0.0324905291800632</v>
       </c>
       <c r="G7">
-        <v>23005.9375</v>
+        <v>22417.6875</v>
       </c>
       <c r="H7">
-        <v>0.03362171527362301</v>
+        <v>0.03295148504282197</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1458257416.288913</v>
+        <v>1331198505.2294</v>
       </c>
       <c r="C8">
-        <v>38187.13679092626</v>
+        <v>36485.5931187832</v>
       </c>
       <c r="D8">
-        <v>0.002928802739276784</v>
+        <v>0.002595626663763471</v>
       </c>
       <c r="E8">
-        <v>31875.61546848785</v>
+        <v>27961.66</v>
       </c>
       <c r="F8">
-        <v>0.04565615712694102</v>
+        <v>0.03993540816068126</v>
       </c>
       <c r="G8">
-        <v>30326.94144090248</v>
+        <v>23411.40500000003</v>
       </c>
       <c r="H8">
-        <v>0.04426926169434929</v>
+        <v>0.03545832337010205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1360390023.258492</v>
+        <v>1543861488.532281</v>
       </c>
       <c r="C9">
-        <v>36883.46544535223</v>
+        <v>39292.00285722632</v>
       </c>
       <c r="D9">
-        <v>0.002828328558738721</v>
+        <v>0.003111473440453044</v>
       </c>
       <c r="E9">
-        <v>33144.35250000001</v>
+        <v>31080.70421202677</v>
       </c>
       <c r="F9">
-        <v>0.0480765243421137</v>
+        <v>0.04467837488255227</v>
       </c>
       <c r="G9">
-        <v>30422.73000000004</v>
+        <v>23014.80190689536</v>
       </c>
       <c r="H9">
-        <v>0.04387337882085506</v>
+        <v>0.03425957740233335</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,25 +689,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1671830538.446887</v>
+        <v>1393360003.758943</v>
       </c>
       <c r="C10">
-        <v>40888.02438913975</v>
+        <v>37327.73772623976</v>
       </c>
       <c r="D10">
-        <v>0.003463666631111473</v>
+        <v>0.002674652658618935</v>
       </c>
       <c r="E10">
-        <v>33421.59887451851</v>
+        <v>29065.16766969347</v>
       </c>
       <c r="F10">
-        <v>0.04833077611065817</v>
+        <v>0.04094878357171886</v>
       </c>
       <c r="G10">
-        <v>32544.13585261581</v>
+        <v>29040.33789314883</v>
       </c>
       <c r="H10">
-        <v>0.04628835363610125</v>
+        <v>0.04175454607135622</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>3589255212.78418</v>
+        <v>35326986307.27206</v>
       </c>
       <c r="C11">
-        <v>59910.39319503904</v>
+        <v>187954.7453704536</v>
       </c>
       <c r="D11">
-        <v>0.007611574590531593</v>
+        <v>0.07208686306024774</v>
       </c>
       <c r="E11">
-        <v>52780.36979166666</v>
+        <v>166688.3046875</v>
       </c>
       <c r="F11">
-        <v>0.07745946868689259</v>
+        <v>0.2396609786706491</v>
       </c>
       <c r="G11">
-        <v>47848.90625</v>
+        <v>146544.171875</v>
       </c>
       <c r="H11">
-        <v>0.07181771617326752</v>
+        <v>0.2154023517197705</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -741,25 +741,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3864252479.101562</v>
+        <v>46794217101.38241</v>
       </c>
       <c r="C12">
-        <v>62163.11188399084</v>
+        <v>216319.7103857677</v>
       </c>
       <c r="D12">
-        <v>0.00879051041201513</v>
+        <v>0.09796935773384223</v>
       </c>
       <c r="E12">
-        <v>54897.19791666666</v>
+        <v>198998.7838541667</v>
       </c>
       <c r="F12">
-        <v>0.08182532192274754</v>
+        <v>0.2876255831591696</v>
       </c>
       <c r="G12">
-        <v>48561.84375</v>
+        <v>202937.125</v>
       </c>
       <c r="H12">
-        <v>0.07139093279394397</v>
+        <v>0.2845106417722886</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -767,25 +767,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>3594163391.796224</v>
+        <v>69979056020.29036</v>
       </c>
       <c r="C13">
-        <v>59951.34186818694</v>
+        <v>264535.5477441366</v>
       </c>
       <c r="D13">
-        <v>0.007686515536580132</v>
+        <v>0.1467045273392498</v>
       </c>
       <c r="E13">
-        <v>52604.11458333334</v>
+        <v>252281.5416666667</v>
       </c>
       <c r="F13">
-        <v>0.0773626469884125</v>
+        <v>0.3653269121109862</v>
       </c>
       <c r="G13">
-        <v>53399.4375</v>
+        <v>277072.796875</v>
       </c>
       <c r="H13">
-        <v>0.0808816973631372</v>
+        <v>0.3981933272471295</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -793,25 +793,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>78232466591.65056</v>
+        <v>92037133966.12877</v>
       </c>
       <c r="C14">
-        <v>279700.6732055726</v>
+        <v>303376.2251168156</v>
       </c>
       <c r="D14">
-        <v>0.1676135367351198</v>
+        <v>0.1943916878466492</v>
       </c>
       <c r="E14">
-        <v>273545.078125</v>
+        <v>295954.71484375</v>
       </c>
       <c r="F14">
-        <v>0.4007533932115783</v>
+        <v>0.4298654936392654</v>
       </c>
       <c r="G14">
-        <v>259910.453125</v>
+        <v>304301.140625</v>
       </c>
       <c r="H14">
-        <v>0.372304083787883</v>
+        <v>0.4274879466712897</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,757 +879,757 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>688648</v>
+        <v>651454</v>
       </c>
       <c r="D2">
-        <v>678451.4375</v>
+        <v>653622.4375</v>
       </c>
       <c r="E2">
-        <v>665718.375</v>
+        <v>663909.875</v>
       </c>
       <c r="F2">
-        <v>661605.75</v>
+        <v>668679.1875</v>
       </c>
       <c r="G2">
-        <v>661848.125</v>
+        <v>675754.375</v>
       </c>
       <c r="H2">
-        <v>686995.125</v>
+        <v>662376.25</v>
       </c>
       <c r="I2">
-        <v>713478.625</v>
+        <v>670227.125</v>
       </c>
       <c r="J2">
-        <v>650812.5255966118</v>
+        <v>657704.49</v>
       </c>
       <c r="K2">
-        <v>640519.4399999999</v>
+        <v>643585.0973297458</v>
       </c>
       <c r="L2">
-        <v>652451.7173086295</v>
+        <v>655410.8314424425</v>
       </c>
       <c r="M2">
-        <v>719689.8125</v>
+        <v>700652.0625</v>
       </c>
       <c r="N2">
-        <v>746190.6875</v>
+        <v>654053.125</v>
       </c>
       <c r="O2">
-        <v>717411.25</v>
+        <v>593018.375</v>
       </c>
       <c r="P2">
-        <v>488978.3125</v>
+        <v>508953.875</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>716221</v>
+        <v>669451</v>
       </c>
       <c r="D3">
-        <v>724317.625</v>
+        <v>668770.75</v>
       </c>
       <c r="E3">
-        <v>732565.25</v>
+        <v>680087.125</v>
       </c>
       <c r="F3">
-        <v>684336.75</v>
+        <v>672254</v>
       </c>
       <c r="G3">
-        <v>663389.25</v>
+        <v>683283.0625</v>
       </c>
       <c r="H3">
-        <v>714542.25</v>
+        <v>684964.875</v>
       </c>
       <c r="I3">
-        <v>754115.75</v>
+        <v>692962.125</v>
       </c>
       <c r="J3">
-        <v>649127.0354388471</v>
+        <v>672164.77</v>
       </c>
       <c r="K3">
-        <v>650792.17</v>
+        <v>680961.3261055357</v>
       </c>
       <c r="L3">
-        <v>647488.9950563498</v>
+        <v>669510.2011002899</v>
       </c>
       <c r="M3">
-        <v>682862.1875</v>
+        <v>557679.9375</v>
       </c>
       <c r="N3">
-        <v>677942.5</v>
+        <v>440935.59375</v>
       </c>
       <c r="O3">
-        <v>685035.75</v>
+        <v>348057.1875</v>
       </c>
       <c r="P3">
-        <v>425476.6875</v>
+        <v>329767.09375</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>668339</v>
+        <v>648086</v>
       </c>
       <c r="D4">
-        <v>661696.9375</v>
+        <v>642053.125</v>
       </c>
       <c r="E4">
-        <v>663642.125</v>
+        <v>648463.875</v>
       </c>
       <c r="F4">
-        <v>660096.375</v>
+        <v>654156.25</v>
       </c>
       <c r="G4">
-        <v>660785</v>
+        <v>639260.1875</v>
       </c>
       <c r="H4">
-        <v>655982.5</v>
+        <v>623201.375</v>
       </c>
       <c r="I4">
-        <v>699536.75</v>
+        <v>667378.875</v>
       </c>
       <c r="J4">
-        <v>649773.4963368406</v>
+        <v>628791.99</v>
       </c>
       <c r="K4">
-        <v>640009.2</v>
+        <v>611738.8995645992</v>
       </c>
       <c r="L4">
-        <v>659995.5266523303</v>
+        <v>649778.8105382981</v>
       </c>
       <c r="M4">
-        <v>597860.375</v>
+        <v>586735.375</v>
       </c>
       <c r="N4">
-        <v>628758</v>
+        <v>333533.21875</v>
       </c>
       <c r="O4">
-        <v>601177.25</v>
+        <v>300952.90625</v>
       </c>
       <c r="P4">
-        <v>302544.28125</v>
+        <v>241954.609375</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>651454</v>
+        <v>716861</v>
       </c>
       <c r="D5">
-        <v>644797.375</v>
+        <v>747145.8125</v>
       </c>
       <c r="E5">
-        <v>659194.75</v>
+        <v>726959.25</v>
       </c>
       <c r="F5">
-        <v>639704.0625</v>
+        <v>718575.8125</v>
       </c>
       <c r="G5">
-        <v>655465.5625</v>
+        <v>731566.125</v>
       </c>
       <c r="H5">
-        <v>634248</v>
+        <v>713260.75</v>
       </c>
       <c r="I5">
-        <v>681653.625</v>
+        <v>754511.25</v>
       </c>
       <c r="J5">
-        <v>644966.4944199771</v>
+        <v>703122.65</v>
       </c>
       <c r="K5">
-        <v>642576.76</v>
+        <v>698346.5029654168</v>
       </c>
       <c r="L5">
-        <v>642798.4433415257</v>
+        <v>673060.9218726376</v>
       </c>
       <c r="M5">
-        <v>695080</v>
+        <v>594061.625</v>
       </c>
       <c r="N5">
-        <v>723807.5</v>
+        <v>416418.9375</v>
       </c>
       <c r="O5">
-        <v>709573.6875</v>
+        <v>426146.875</v>
       </c>
       <c r="P5">
-        <v>438026.8125</v>
+        <v>373408.53125</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>669451</v>
+        <v>688137</v>
       </c>
       <c r="D6">
-        <v>663914.5625</v>
+        <v>715854.0625</v>
       </c>
       <c r="E6">
-        <v>663705.9375</v>
+        <v>710203.3125</v>
       </c>
       <c r="F6">
-        <v>648715.4375</v>
+        <v>714099.125</v>
       </c>
       <c r="G6">
-        <v>664005.0625</v>
+        <v>697457</v>
       </c>
       <c r="H6">
-        <v>632075.6875</v>
+        <v>667119.875</v>
       </c>
       <c r="I6">
-        <v>688906.3125</v>
+        <v>725802.8125</v>
       </c>
       <c r="J6">
-        <v>649127.0354388471</v>
+        <v>659822.99</v>
       </c>
       <c r="K6">
-        <v>642247.63</v>
+        <v>670874.8787638904</v>
       </c>
       <c r="L6">
-        <v>662388.3969825846</v>
+        <v>661896.1433049832</v>
       </c>
       <c r="M6">
-        <v>708147.75</v>
+        <v>588992.5625</v>
       </c>
       <c r="N6">
-        <v>639885</v>
+        <v>511929.15625</v>
       </c>
       <c r="O6">
-        <v>699035.0625</v>
+        <v>456278.25</v>
       </c>
       <c r="P6">
-        <v>430603.84375</v>
+        <v>437549.875</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>648086</v>
+        <v>714043</v>
       </c>
       <c r="D7">
-        <v>650702.4375</v>
+        <v>715096.1875</v>
       </c>
       <c r="E7">
-        <v>619922.4375</v>
+        <v>740404.1875</v>
       </c>
       <c r="F7">
-        <v>628869.75</v>
+        <v>712860.625</v>
       </c>
       <c r="G7">
-        <v>653187.875</v>
+        <v>713295.5</v>
       </c>
       <c r="H7">
-        <v>625753.875</v>
+        <v>713499.9375</v>
       </c>
       <c r="I7">
-        <v>661335.5</v>
+        <v>742526</v>
       </c>
       <c r="J7">
-        <v>654905.090920291</v>
+        <v>698851.71</v>
       </c>
       <c r="K7">
-        <v>622864.5600000001</v>
+        <v>675239.0499674798</v>
       </c>
       <c r="L7">
-        <v>602443.8770296047</v>
+        <v>669850.1809087192</v>
       </c>
       <c r="M7">
-        <v>583789.75</v>
+        <v>555571.25</v>
       </c>
       <c r="N7">
-        <v>545396.8125</v>
+        <v>523927.75</v>
       </c>
       <c r="O7">
-        <v>576042.3125</v>
+        <v>440287.375</v>
       </c>
       <c r="P7">
-        <v>311466.65625</v>
+        <v>432005.84375</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>716861</v>
+        <v>644503</v>
       </c>
       <c r="D8">
-        <v>710357.625</v>
+        <v>649838.875</v>
       </c>
       <c r="E8">
-        <v>720988.125</v>
+        <v>685612.4375</v>
       </c>
       <c r="F8">
-        <v>711909.0625</v>
+        <v>659578.6875</v>
       </c>
       <c r="G8">
-        <v>702991.75</v>
+        <v>652690</v>
       </c>
       <c r="H8">
-        <v>688362.625</v>
+        <v>679264.1875</v>
       </c>
       <c r="I8">
-        <v>743522.75</v>
+        <v>680854.25</v>
       </c>
       <c r="J8">
-        <v>657522.5454051676</v>
+        <v>672031.8</v>
       </c>
       <c r="K8">
-        <v>684345.34</v>
+        <v>672018.1067792075</v>
       </c>
       <c r="L8">
-        <v>682350.2948905062</v>
+        <v>655718.0598757036</v>
       </c>
       <c r="M8">
-        <v>586950.9375</v>
+        <v>509886.40625</v>
       </c>
       <c r="N8">
-        <v>694022.8125</v>
+        <v>550161.0625</v>
       </c>
       <c r="O8">
-        <v>592805.1875</v>
+        <v>485254.53125</v>
       </c>
       <c r="P8">
-        <v>341584.5625</v>
+        <v>408835.4375</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>688137</v>
+        <v>679183</v>
       </c>
       <c r="D9">
-        <v>688697.75</v>
+        <v>690981.25</v>
       </c>
       <c r="E9">
-        <v>709008.8125</v>
+        <v>693061.75</v>
       </c>
       <c r="F9">
-        <v>689949.625</v>
+        <v>648769.875</v>
       </c>
       <c r="G9">
-        <v>665649.4375</v>
+        <v>668718.1875</v>
       </c>
       <c r="H9">
-        <v>685203.0625</v>
+        <v>653757.1875</v>
       </c>
       <c r="I9">
-        <v>704985.375</v>
+        <v>691474.1875</v>
       </c>
       <c r="J9">
-        <v>649150.1501214112</v>
+        <v>637975.37</v>
       </c>
       <c r="K9">
-        <v>644896.28</v>
+        <v>605437.921283811</v>
       </c>
       <c r="L9">
-        <v>657559.4334042622</v>
+        <v>659190.3959695231</v>
       </c>
       <c r="M9">
-        <v>620821.625</v>
+        <v>462340.5</v>
       </c>
       <c r="N9">
-        <v>757783.5</v>
+        <v>486142.9375</v>
       </c>
       <c r="O9">
-        <v>615220.5</v>
+        <v>405163.25</v>
       </c>
       <c r="P9">
-        <v>386161.40625</v>
+        <v>376781.90625</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>714043</v>
+        <v>701690</v>
       </c>
       <c r="D10">
-        <v>713002.375</v>
+        <v>696975.875</v>
       </c>
       <c r="E10">
-        <v>723309.5</v>
+        <v>716432.3125</v>
       </c>
       <c r="F10">
-        <v>704105.125</v>
+        <v>695421.5</v>
       </c>
       <c r="G10">
-        <v>700824.5</v>
+        <v>687683.75</v>
       </c>
       <c r="H10">
-        <v>691467.9375</v>
+        <v>690734.9375</v>
       </c>
       <c r="I10">
-        <v>733837.375</v>
+        <v>726496.25</v>
       </c>
       <c r="J10">
-        <v>657522.5454051676</v>
+        <v>693621.9</v>
       </c>
       <c r="K10">
-        <v>686407.85</v>
+        <v>693832.6060795598</v>
       </c>
       <c r="L10">
-        <v>647738.627257747</v>
+        <v>669850.1809087192</v>
       </c>
       <c r="M10">
-        <v>685606.25</v>
+        <v>408347.75</v>
       </c>
       <c r="N10">
-        <v>695924.3125</v>
+        <v>455208.9375</v>
       </c>
       <c r="O10">
-        <v>686145</v>
+        <v>421564.15625</v>
       </c>
       <c r="P10">
-        <v>437117.46875</v>
+        <v>360882.8125</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>644503</v>
+        <v>692729</v>
       </c>
       <c r="D11">
-        <v>640254.3125</v>
+        <v>711545.4375</v>
       </c>
       <c r="E11">
-        <v>642792.375</v>
+        <v>711851.9375</v>
       </c>
       <c r="F11">
-        <v>646085.9375</v>
+        <v>675044.5</v>
       </c>
       <c r="G11">
-        <v>652932.625</v>
+        <v>676332.0625</v>
       </c>
       <c r="H11">
-        <v>625778.625</v>
+        <v>689419.8125</v>
       </c>
       <c r="I11">
-        <v>675878.5</v>
+        <v>714053.25</v>
       </c>
       <c r="J11">
-        <v>640952.7402088158</v>
+        <v>657524.84</v>
       </c>
       <c r="K11">
-        <v>637624.96</v>
+        <v>680060.4031358664</v>
       </c>
       <c r="L11">
-        <v>649050.2384478692</v>
+        <v>657269.8950377844</v>
       </c>
       <c r="M11">
-        <v>701778.625</v>
+        <v>510791.40625</v>
       </c>
       <c r="N11">
-        <v>539870.75</v>
+        <v>544361.3125</v>
       </c>
       <c r="O11">
-        <v>701520.9375</v>
+        <v>517722.71875</v>
       </c>
       <c r="P11">
-        <v>425617.8125</v>
+        <v>443813.46875</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>679183</v>
+        <v>747318</v>
       </c>
       <c r="D12">
-        <v>642064.125</v>
+        <v>723318.5</v>
       </c>
       <c r="E12">
-        <v>687663.25</v>
+        <v>720331.5625</v>
       </c>
       <c r="F12">
-        <v>652922.625</v>
+        <v>706036.5625</v>
       </c>
       <c r="G12">
-        <v>664531.5</v>
+        <v>681924.625</v>
       </c>
       <c r="H12">
-        <v>653900.3125</v>
+        <v>654773.4375</v>
       </c>
       <c r="I12">
-        <v>658001.75</v>
+        <v>743289.9375</v>
       </c>
       <c r="J12">
-        <v>656364.5915215833</v>
+        <v>655411.0600000001</v>
       </c>
       <c r="K12">
-        <v>627537.84</v>
+        <v>662992.7952825867</v>
       </c>
       <c r="L12">
-        <v>610347.0466749145</v>
+        <v>661513.8436263003</v>
       </c>
       <c r="M12">
-        <v>731254.8125</v>
+        <v>525300.625</v>
       </c>
       <c r="N12">
-        <v>601278</v>
+        <v>534483.8125</v>
       </c>
       <c r="O12">
-        <v>728963.9375</v>
+        <v>450505.1875</v>
       </c>
       <c r="P12">
-        <v>457702.59375</v>
+        <v>441116.8125</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>701690</v>
+        <v>703786</v>
       </c>
       <c r="D13">
-        <v>688999.75</v>
+        <v>666271.1875</v>
       </c>
       <c r="E13">
-        <v>679739.375</v>
+        <v>696167.25</v>
       </c>
       <c r="F13">
-        <v>685797.625</v>
+        <v>679223.625</v>
       </c>
       <c r="G13">
-        <v>668877.625</v>
+        <v>659315.5</v>
       </c>
       <c r="H13">
-        <v>652347.625</v>
+        <v>667691.5625</v>
       </c>
       <c r="I13">
-        <v>720518.5</v>
+        <v>701668.125</v>
       </c>
       <c r="J13">
-        <v>657522.5454051676</v>
+        <v>657663.63</v>
       </c>
       <c r="K13">
-        <v>669061.74</v>
+        <v>667235.8279674663</v>
       </c>
       <c r="L13">
-        <v>680038.6933551924</v>
+        <v>659257.3292917456</v>
       </c>
       <c r="M13">
-        <v>718546.5625</v>
+        <v>355017.96875</v>
       </c>
       <c r="N13">
-        <v>676075.125</v>
+        <v>423298</v>
       </c>
       <c r="O13">
-        <v>714412.5</v>
+        <v>384911.6875</v>
       </c>
       <c r="P13">
-        <v>458794.625</v>
+        <v>350714.15625</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>692729</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>688102.75</v>
+        <v>660447.25</v>
       </c>
       <c r="E14">
-        <v>669399.5</v>
+        <v>664527.9375</v>
       </c>
       <c r="F14">
-        <v>687314.75</v>
+        <v>640830.4375</v>
       </c>
       <c r="G14">
-        <v>668470.125</v>
+        <v>630875.5</v>
       </c>
       <c r="H14">
-        <v>648630.125</v>
+        <v>665252.3125</v>
       </c>
       <c r="I14">
-        <v>711565.375</v>
+        <v>664262.875</v>
       </c>
       <c r="J14">
-        <v>656364.5915215833</v>
+        <v>648582.77</v>
       </c>
       <c r="K14">
-        <v>633350.84</v>
+        <v>648886.7377940536</v>
       </c>
       <c r="L14">
-        <v>671470.8165484135</v>
+        <v>650237.6900581969</v>
       </c>
       <c r="M14">
-        <v>667866</v>
+        <v>460255.6875</v>
       </c>
       <c r="N14">
-        <v>634353.3125</v>
+        <v>431051.6875</v>
       </c>
       <c r="O14">
-        <v>664867.1875</v>
+        <v>387390.375</v>
       </c>
       <c r="P14">
-        <v>401805.75</v>
+        <v>356833.09375</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>747318</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>699895.5625</v>
+        <v>698464.375</v>
       </c>
       <c r="E15">
-        <v>704919.125</v>
+        <v>702026.0625</v>
       </c>
       <c r="F15">
-        <v>677136.625</v>
+        <v>676534.625</v>
       </c>
       <c r="G15">
-        <v>666352.625</v>
+        <v>662064.125</v>
       </c>
       <c r="H15">
-        <v>685352.5</v>
+        <v>686626.125</v>
       </c>
       <c r="I15">
-        <v>710363.875</v>
+        <v>695512.4375</v>
       </c>
       <c r="J15">
-        <v>657522.5454051676</v>
+        <v>657571.29</v>
       </c>
       <c r="K15">
-        <v>625817.98</v>
+        <v>668243.362484908</v>
       </c>
       <c r="L15">
-        <v>645327.1569545241</v>
+        <v>658303.1026623819</v>
       </c>
       <c r="M15">
-        <v>680715.6875</v>
+        <v>259249.703125</v>
       </c>
       <c r="N15">
-        <v>660116.875</v>
+        <v>475312.125</v>
       </c>
       <c r="O15">
-        <v>674179.1875</v>
+        <v>459208.5</v>
       </c>
       <c r="P15">
-        <v>434274.46875</v>
+        <v>361745.71875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>703786</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>652601.375</v>
+        <v>676471.9375</v>
       </c>
       <c r="E16">
-        <v>641622</v>
+        <v>694988.75</v>
       </c>
       <c r="F16">
-        <v>632252.375</v>
+        <v>664369.5</v>
       </c>
       <c r="G16">
-        <v>670277.375</v>
+        <v>670425.4375</v>
       </c>
       <c r="H16">
-        <v>621438.625</v>
+        <v>656105.9375</v>
       </c>
       <c r="I16">
-        <v>641063.75</v>
+        <v>693582.5</v>
       </c>
       <c r="J16">
-        <v>657947.7915668719</v>
+        <v>656600.52</v>
       </c>
       <c r="K16">
-        <v>632278.5</v>
+        <v>602152.250314004</v>
       </c>
       <c r="L16">
-        <v>641483.73071085</v>
+        <v>661550.163943378</v>
       </c>
       <c r="M16">
-        <v>704591.3125</v>
+        <v>442395.09375</v>
       </c>
       <c r="N16">
-        <v>602260.9375</v>
+        <v>534901.875</v>
       </c>
       <c r="O16">
-        <v>704774.125</v>
+        <v>499663.34375</v>
       </c>
       <c r="P16">
-        <v>471032.09375</v>
+        <v>420855.78125</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1638,48 +1638,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>635453.625</v>
+        <v>724400.375</v>
       </c>
       <c r="E17">
-        <v>627783</v>
+        <v>733746.0625</v>
       </c>
       <c r="F17">
-        <v>652312.1875</v>
+        <v>692468.625</v>
       </c>
       <c r="G17">
-        <v>655090.5625</v>
+        <v>700133.75</v>
       </c>
       <c r="H17">
-        <v>617214</v>
+        <v>685718</v>
       </c>
       <c r="I17">
-        <v>641917.4375</v>
+        <v>727565.25</v>
       </c>
       <c r="J17">
-        <v>648724.9039597069</v>
+        <v>654688.85</v>
       </c>
       <c r="K17">
-        <v>633538.15</v>
+        <v>675944.2528259722</v>
       </c>
       <c r="L17">
-        <v>634738.6470565373</v>
+        <v>661513.8436263003</v>
       </c>
       <c r="M17">
-        <v>797795.1875</v>
+        <v>343451.40625</v>
       </c>
       <c r="N17">
-        <v>500716.59375</v>
+        <v>548195.1875</v>
       </c>
       <c r="O17">
-        <v>804904.875</v>
+        <v>528909.375</v>
       </c>
       <c r="P17">
-        <v>543990.1875</v>
+        <v>463190.09375</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1688,48 +1688,48 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>679134.5</v>
+        <v>727810.375</v>
       </c>
       <c r="E18">
-        <v>670384.25</v>
+        <v>719934.625</v>
       </c>
       <c r="F18">
-        <v>681623.0625</v>
+        <v>691223.6875</v>
       </c>
       <c r="G18">
-        <v>667266.875</v>
+        <v>681403.25</v>
       </c>
       <c r="H18">
-        <v>645415.875</v>
+        <v>691038.8125</v>
       </c>
       <c r="I18">
-        <v>656856.625</v>
+        <v>706827.4375</v>
       </c>
       <c r="J18">
-        <v>657522.5454051676</v>
+        <v>658415.85</v>
       </c>
       <c r="K18">
-        <v>629439.33</v>
+        <v>677483.2010287875</v>
       </c>
       <c r="L18">
-        <v>661169.9350780237</v>
+        <v>660100.1809206601</v>
       </c>
       <c r="M18">
-        <v>837162.5</v>
+        <v>451771.40625</v>
       </c>
       <c r="N18">
-        <v>610423.125</v>
+        <v>576192.75</v>
       </c>
       <c r="O18">
-        <v>830042.8125</v>
+        <v>538246.0625</v>
       </c>
       <c r="P18">
-        <v>567657.5625</v>
+        <v>450890.3125</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1738,48 +1738,48 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>664674.9375</v>
+        <v>726627.3125</v>
       </c>
       <c r="E19">
-        <v>671194.75</v>
+        <v>737522.9375</v>
       </c>
       <c r="F19">
-        <v>672922.5</v>
+        <v>709060.875</v>
       </c>
       <c r="G19">
-        <v>665912.625</v>
+        <v>695615.875</v>
       </c>
       <c r="H19">
-        <v>645430.75</v>
+        <v>685708.75</v>
       </c>
       <c r="I19">
-        <v>665230</v>
+        <v>726267.125</v>
       </c>
       <c r="J19">
-        <v>657947.7915668719</v>
+        <v>655622.52</v>
       </c>
       <c r="K19">
-        <v>629128.2</v>
+        <v>673809.4107092604</v>
       </c>
       <c r="L19">
-        <v>589610.2901155435</v>
+        <v>658303.1026623819</v>
       </c>
       <c r="M19">
-        <v>794897</v>
+        <v>468136.125</v>
       </c>
       <c r="N19">
-        <v>566491.8125</v>
+        <v>547870.875</v>
       </c>
       <c r="O19">
-        <v>792945.3125</v>
+        <v>460706.9375</v>
       </c>
       <c r="P19">
-        <v>507712.59375</v>
+        <v>441833.4375</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1788,48 +1788,48 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>711674.75</v>
+        <v>637310.625</v>
       </c>
       <c r="E20">
-        <v>720940.8125</v>
+        <v>635718.5625</v>
       </c>
       <c r="F20">
-        <v>703826</v>
+        <v>601454.8125</v>
       </c>
       <c r="G20">
-        <v>662811</v>
+        <v>600353</v>
       </c>
       <c r="H20">
-        <v>670942.5625</v>
+        <v>619646</v>
       </c>
       <c r="I20">
-        <v>701460.1875</v>
+        <v>644948.625</v>
       </c>
       <c r="J20">
-        <v>657522.5454051676</v>
+        <v>639690.3199999999</v>
       </c>
       <c r="K20">
-        <v>625864.9</v>
+        <v>579844.6130744447</v>
       </c>
       <c r="L20">
-        <v>668861.4482946569</v>
+        <v>650114.8239411141</v>
       </c>
       <c r="M20">
-        <v>758755.125</v>
+        <v>322058.8125</v>
       </c>
       <c r="N20">
-        <v>724619.375</v>
+        <v>511098.9375</v>
       </c>
       <c r="O20">
-        <v>746723.0625</v>
+        <v>430892.375</v>
       </c>
       <c r="P20">
-        <v>467176.03125</v>
+        <v>383409.25</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1838,48 +1838,48 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>700759.9375</v>
+        <v>714055.1875</v>
       </c>
       <c r="E21">
-        <v>689603.5</v>
+        <v>712934</v>
       </c>
       <c r="F21">
-        <v>690473.5</v>
+        <v>686164.4375</v>
       </c>
       <c r="G21">
-        <v>675258.5</v>
+        <v>698168</v>
       </c>
       <c r="H21">
-        <v>670316</v>
+        <v>690961.875</v>
       </c>
       <c r="I21">
-        <v>690452.75</v>
+        <v>709698.375</v>
       </c>
       <c r="J21">
-        <v>657545.6600877317</v>
+        <v>656479.8</v>
       </c>
       <c r="K21">
-        <v>634388.4300000001</v>
+        <v>654863.8621839139</v>
       </c>
       <c r="L21">
-        <v>652584.543898056</v>
+        <v>659760.2011122309</v>
       </c>
       <c r="M21">
-        <v>685864.4375</v>
+        <v>291649.125</v>
       </c>
       <c r="N21">
-        <v>588763.875</v>
+        <v>531459.6875</v>
       </c>
       <c r="O21">
-        <v>673808.25</v>
+        <v>419959.3125</v>
       </c>
       <c r="P21">
-        <v>438766.46875</v>
+        <v>370041.15625</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>718398.875</v>
+        <v>668580.5625</v>
       </c>
       <c r="E22">
-        <v>699975.75</v>
+        <v>671092.75</v>
       </c>
       <c r="F22">
-        <v>703854.875</v>
+        <v>649159.125</v>
       </c>
       <c r="G22">
-        <v>661210.125</v>
+        <v>631564</v>
       </c>
       <c r="H22">
-        <v>675198.9375</v>
+        <v>662098.25</v>
       </c>
       <c r="I22">
-        <v>702932.125</v>
+        <v>677181.5</v>
       </c>
       <c r="J22">
-        <v>657522.5454051676</v>
+        <v>653724.8199999999</v>
       </c>
       <c r="K22">
-        <v>629048.08</v>
+        <v>675280.0630030166</v>
       </c>
       <c r="L22">
-        <v>668831.0219373432</v>
+        <v>661513.8436263003</v>
       </c>
       <c r="M22">
-        <v>710033.6875</v>
+        <v>409448.4375</v>
       </c>
       <c r="N22">
-        <v>708646.0625</v>
+        <v>568663.0625</v>
       </c>
       <c r="O22">
-        <v>713964.5625</v>
+        <v>518142.34375</v>
       </c>
       <c r="P22">
-        <v>458520.78125</v>
+        <v>423900.3125</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1938,48 +1938,48 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>642183.875</v>
+        <v>714588.25</v>
       </c>
       <c r="E23">
-        <v>612511.8125</v>
+        <v>700648.5625</v>
       </c>
       <c r="F23">
-        <v>624082.25</v>
+        <v>680932.5</v>
       </c>
       <c r="G23">
-        <v>646231.3125</v>
+        <v>665246.875</v>
       </c>
       <c r="H23">
-        <v>629859.5</v>
+        <v>690746</v>
       </c>
       <c r="I23">
-        <v>634676.3125</v>
+        <v>689248.4375</v>
       </c>
       <c r="J23">
-        <v>649348.2501751363</v>
+        <v>656435.84</v>
       </c>
       <c r="K23">
-        <v>616663.66</v>
+        <v>674771.3655620383</v>
       </c>
       <c r="L23">
-        <v>565162.0029019874</v>
+        <v>659760.2011122309</v>
       </c>
       <c r="M23">
-        <v>818396.8125</v>
+        <v>458904.25</v>
       </c>
       <c r="N23">
-        <v>572568.9375</v>
+        <v>647885.75</v>
       </c>
       <c r="O23">
-        <v>839881.9375</v>
+        <v>634427.4375</v>
       </c>
       <c r="P23">
-        <v>542392.25</v>
+        <v>506365.96875</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1988,48 +1988,48 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>714906.875</v>
+        <v>707022.1875</v>
       </c>
       <c r="E24">
-        <v>693083.5</v>
+        <v>725006.9375</v>
       </c>
       <c r="F24">
-        <v>679624.25</v>
+        <v>691387.4375</v>
       </c>
       <c r="G24">
-        <v>673980.25</v>
+        <v>692530.125</v>
       </c>
       <c r="H24">
-        <v>671583.25</v>
+        <v>687227</v>
       </c>
       <c r="I24">
-        <v>683725.3125</v>
+        <v>719329.6875</v>
       </c>
       <c r="J24">
-        <v>655962.460042443</v>
+        <v>656408.86</v>
       </c>
       <c r="K24">
-        <v>638792.89</v>
+        <v>644679.3985451856</v>
       </c>
       <c r="L24">
-        <v>631132.7139025063</v>
+        <v>661513.8436263003</v>
       </c>
       <c r="M24">
-        <v>934207.4375</v>
+        <v>464621.9375</v>
       </c>
       <c r="N24">
-        <v>750154.125</v>
+        <v>672635.3125</v>
       </c>
       <c r="O24">
-        <v>935348</v>
+        <v>626369.3125</v>
       </c>
       <c r="P24">
-        <v>697644.25</v>
+        <v>587604.875</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2038,48 +2038,48 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>657091.3125</v>
+        <v>700749.4375</v>
       </c>
       <c r="E25">
-        <v>661257.6875</v>
+        <v>695393.6875</v>
       </c>
       <c r="F25">
-        <v>640292.1875</v>
+        <v>666267.125</v>
       </c>
       <c r="G25">
-        <v>668230</v>
+        <v>665034.25</v>
       </c>
       <c r="H25">
-        <v>639109</v>
+        <v>672083.6875</v>
       </c>
       <c r="I25">
-        <v>664935.4375</v>
+        <v>685036.3125</v>
       </c>
       <c r="J25">
-        <v>657522.5454051676</v>
+        <v>654769.36</v>
       </c>
       <c r="K25">
-        <v>626202.65</v>
+        <v>680881.4278969467</v>
       </c>
       <c r="L25">
-        <v>667884.1942214461</v>
+        <v>657269.8950377844</v>
       </c>
       <c r="M25">
-        <v>896412.5</v>
+        <v>466908</v>
       </c>
       <c r="N25">
-        <v>725741.9375</v>
+        <v>640509.1875</v>
       </c>
       <c r="O25">
-        <v>899503.75</v>
+        <v>601524.75</v>
       </c>
       <c r="P25">
-        <v>642963.0625</v>
+        <v>524209.0625</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2088,48 +2088,48 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>682578.75</v>
+        <v>660220.25</v>
       </c>
       <c r="E26">
-        <v>660847.3125</v>
+        <v>657310</v>
       </c>
       <c r="F26">
-        <v>683229</v>
+        <v>645008.25</v>
       </c>
       <c r="G26">
-        <v>666928.9375</v>
+        <v>636909.8125</v>
       </c>
       <c r="H26">
-        <v>635741.6875</v>
+        <v>665252.3125</v>
       </c>
       <c r="I26">
-        <v>671060.125</v>
+        <v>625493.8125</v>
       </c>
       <c r="J26">
-        <v>649150.1501214112</v>
+        <v>648582.77</v>
       </c>
       <c r="K26">
-        <v>638963.34</v>
+        <v>648886.7377940536</v>
       </c>
       <c r="L26">
-        <v>654200.2559272237</v>
+        <v>650237.6900581969</v>
       </c>
       <c r="M26">
-        <v>907436.1875</v>
+        <v>297850.78125</v>
       </c>
       <c r="N26">
-        <v>786047.8125</v>
+        <v>587958.375</v>
       </c>
       <c r="O26">
-        <v>911121.9375</v>
+        <v>529870.375</v>
       </c>
       <c r="P26">
-        <v>673679.5</v>
+        <v>423073.90625</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45778</v>
+        <v>45870</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2138,48 +2138,48 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>697926.875</v>
+        <v>676084</v>
       </c>
       <c r="E27">
-        <v>698101.5625</v>
+        <v>676502.625</v>
       </c>
       <c r="F27">
-        <v>692479.5</v>
+        <v>664183.125</v>
       </c>
       <c r="G27">
-        <v>667140.375</v>
+        <v>637744.6875</v>
       </c>
       <c r="H27">
-        <v>648769.625</v>
+        <v>686626.125</v>
       </c>
       <c r="I27">
-        <v>670134</v>
+        <v>687732.5625</v>
       </c>
       <c r="J27">
-        <v>657522.5454051676</v>
+        <v>657571.29</v>
       </c>
       <c r="K27">
-        <v>626202.65</v>
+        <v>668243.362484908</v>
       </c>
       <c r="L27">
-        <v>625483.6404976696</v>
+        <v>658303.1026623819</v>
       </c>
       <c r="M27">
-        <v>887186.3125</v>
+        <v>390637.0625</v>
       </c>
       <c r="N27">
-        <v>787029.625</v>
+        <v>540297.625</v>
       </c>
       <c r="O27">
-        <v>891158.1875</v>
+        <v>494795.46875</v>
       </c>
       <c r="P27">
-        <v>670823.1875</v>
+        <v>384067.53125</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2188,48 +2188,48 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>668547.875</v>
+        <v>707137.5</v>
       </c>
       <c r="E28">
-        <v>653759.4375</v>
+        <v>717269.375</v>
       </c>
       <c r="F28">
-        <v>663194.8125</v>
+        <v>698631.3125</v>
       </c>
       <c r="G28">
-        <v>667907</v>
+        <v>697346.6875</v>
       </c>
       <c r="H28">
-        <v>638087.1875</v>
+        <v>690778.875</v>
       </c>
       <c r="I28">
-        <v>654859.375</v>
+        <v>704404.625</v>
       </c>
       <c r="J28">
-        <v>656364.5915215833</v>
+        <v>656435.84</v>
       </c>
       <c r="K28">
-        <v>633350.84</v>
+        <v>669532.8362624228</v>
       </c>
       <c r="L28">
-        <v>672322.3838051113</v>
+        <v>659760.2011122309</v>
       </c>
       <c r="M28">
-        <v>919932</v>
+        <v>408496.1875</v>
       </c>
       <c r="N28">
-        <v>807619.875</v>
+        <v>590502.8125</v>
       </c>
       <c r="O28">
-        <v>934304.9375</v>
+        <v>539093.625</v>
       </c>
       <c r="P28">
-        <v>671707.875</v>
+        <v>489194.8125</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2238,48 +2238,48 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>634030.5</v>
+        <v>688348.375</v>
       </c>
       <c r="E29">
-        <v>622013.25</v>
+        <v>708211.875</v>
       </c>
       <c r="F29">
-        <v>633029.5625</v>
+        <v>691453.75</v>
       </c>
       <c r="G29">
-        <v>655090.5625</v>
+        <v>693838.375</v>
       </c>
       <c r="H29">
-        <v>619474.8125</v>
+        <v>654636.25</v>
       </c>
       <c r="I29">
-        <v>625745.5625</v>
+        <v>690393.5</v>
       </c>
       <c r="J29">
-        <v>648724.9039597069</v>
+        <v>653805.58</v>
       </c>
       <c r="K29">
-        <v>633538.15</v>
+        <v>589580.4332023311</v>
       </c>
       <c r="L29">
-        <v>634738.6470565373</v>
+        <v>661513.8436263003</v>
       </c>
       <c r="M29">
-        <v>985236.8125</v>
+        <v>617691.8125</v>
       </c>
       <c r="N29">
-        <v>830371.9375</v>
+        <v>697219.9375</v>
       </c>
       <c r="O29">
-        <v>987975.25</v>
+        <v>659797.0625</v>
       </c>
       <c r="P29">
-        <v>769112.25</v>
+        <v>610654.5625</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2288,48 +2288,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>667342</v>
+        <v>701386.625</v>
       </c>
       <c r="E30">
-        <v>648465.25</v>
+        <v>711364.5625</v>
       </c>
       <c r="F30">
-        <v>645308.0625</v>
+        <v>691183</v>
       </c>
       <c r="G30">
-        <v>667266.875</v>
+        <v>687107.3125</v>
       </c>
       <c r="H30">
-        <v>631044.25</v>
+        <v>691038.8125</v>
       </c>
       <c r="I30">
-        <v>625062.125</v>
+        <v>705836.5625</v>
       </c>
       <c r="J30">
-        <v>657522.5454051676</v>
+        <v>658415.85</v>
       </c>
       <c r="K30">
-        <v>629439.33</v>
+        <v>677483.2010287875</v>
       </c>
       <c r="L30">
-        <v>661169.9350780237</v>
+        <v>660100.1809206601</v>
       </c>
       <c r="M30">
-        <v>936766.1875</v>
+        <v>671807.1875</v>
       </c>
       <c r="N30">
-        <v>746338.0625</v>
+        <v>784229.5</v>
       </c>
       <c r="O30">
-        <v>945311.875</v>
+        <v>706888.5</v>
       </c>
       <c r="P30">
-        <v>688733.25</v>
+        <v>654086.8125</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2338,193 +2338,43 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>697165.125</v>
+        <v>710786.4375</v>
       </c>
       <c r="E31">
-        <v>660808.1875</v>
+        <v>711191.4375</v>
       </c>
       <c r="F31">
-        <v>686813.125</v>
+        <v>698569.875</v>
       </c>
       <c r="G31">
-        <v>666547.5625</v>
+        <v>673769</v>
       </c>
       <c r="H31">
-        <v>662744.625</v>
+        <v>685830.5625</v>
       </c>
       <c r="I31">
-        <v>656558.375</v>
+        <v>692836.5</v>
       </c>
       <c r="J31">
-        <v>649150.1501214112</v>
+        <v>654560.12</v>
       </c>
       <c r="K31">
-        <v>638963.34</v>
+        <v>669714.2182587889</v>
       </c>
       <c r="L31">
-        <v>650833.4442357923</v>
+        <v>656315.6684084208</v>
       </c>
       <c r="M31">
-        <v>961349.125</v>
+        <v>568180.8125</v>
       </c>
       <c r="N31">
-        <v>623962.625</v>
+        <v>749185.375</v>
       </c>
       <c r="O31">
-        <v>963732.75</v>
+        <v>669075.375</v>
       </c>
       <c r="P31">
-        <v>727648.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>694647.1875</v>
-      </c>
-      <c r="E32">
-        <v>681367.9375</v>
-      </c>
-      <c r="F32">
-        <v>701260.5</v>
-      </c>
-      <c r="G32">
-        <v>659073.75</v>
-      </c>
-      <c r="H32">
-        <v>702081.5625</v>
-      </c>
-      <c r="I32">
-        <v>689859</v>
-      </c>
-      <c r="J32">
-        <v>657522.5454051676</v>
-      </c>
-      <c r="K32">
-        <v>623691.61</v>
-      </c>
-      <c r="L32">
-        <v>572013.8191512887</v>
-      </c>
-      <c r="M32">
-        <v>935919.875</v>
-      </c>
-      <c r="N32">
-        <v>568974.25</v>
-      </c>
-      <c r="O32">
-        <v>937634.9375</v>
-      </c>
-      <c r="P32">
-        <v>698952.1875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>683255.625</v>
-      </c>
-      <c r="E33">
-        <v>678402.5</v>
-      </c>
-      <c r="F33">
-        <v>690766.625</v>
-      </c>
-      <c r="G33">
-        <v>675258.5</v>
-      </c>
-      <c r="H33">
-        <v>665491.5625</v>
-      </c>
-      <c r="I33">
-        <v>692591.125</v>
-      </c>
-      <c r="J33">
-        <v>657545.6600877317</v>
-      </c>
-      <c r="K33">
-        <v>634388.4300000001</v>
-      </c>
-      <c r="L33">
-        <v>652584.543898056</v>
-      </c>
-      <c r="M33">
-        <v>909975.25</v>
-      </c>
-      <c r="N33">
-        <v>683541.9375</v>
-      </c>
-      <c r="O33">
-        <v>915588.25</v>
-      </c>
-      <c r="P33">
-        <v>676771.1875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>711253.8125</v>
-      </c>
-      <c r="E34">
-        <v>665964.875</v>
-      </c>
-      <c r="F34">
-        <v>700315.875</v>
-      </c>
-      <c r="G34">
-        <v>659741.6875</v>
-      </c>
-      <c r="H34">
-        <v>670160.375</v>
-      </c>
-      <c r="I34">
-        <v>697485.625</v>
-      </c>
-      <c r="J34">
-        <v>649127.0354388471</v>
-      </c>
-      <c r="K34">
-        <v>629778.79</v>
-      </c>
-      <c r="L34">
-        <v>653620.6252285031</v>
-      </c>
-      <c r="M34">
-        <v>951540.625</v>
-      </c>
-      <c r="N34">
-        <v>774762.3125</v>
-      </c>
-      <c r="O34">
-        <v>959362.125</v>
-      </c>
-      <c r="P34">
-        <v>733793.375</v>
+        <v>643648.4375</v>
       </c>
     </row>
   </sheetData>
